--- a/Pin Mapping.xlsx
+++ b/Pin Mapping.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\zachdeibert\radio-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2B22F16-526C-4B66-B870-28F854ADCAFD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913BF3F-028D-4D19-BA1C-5C5368F21C54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{101F949E-E496-4E96-9AEC-352B1919196D}"/>
   </bookViews>
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L34" sqref="L34"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Pin Mapping.xlsx
+++ b/Pin Mapping.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\github.com\zachdeibert\radio-tracker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1913BF3F-028D-4D19-BA1C-5C5368F21C54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{502A3958-1EF3-4B32-8A0B-93A4ED910CA6}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{101F949E-E496-4E96-9AEC-352B1919196D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{101F949E-E496-4E96-9AEC-352B1919196D}"/>
   </bookViews>
   <sheets>
     <sheet name="Beacon" sheetId="1" r:id="rId1"/>
@@ -601,9 +601,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -626,6 +623,9 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -952,8 +952,8 @@
     <col min="2" max="2" width="12.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.85546875" customWidth="1"/>
-    <col min="5" max="5" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="5.7109375" bestFit="1" customWidth="1"/>
@@ -968,27 +968,27 @@
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="5" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
+      <c r="L1" s="17"/>
+      <c r="M1" s="17"/>
+      <c r="N1" s="17"/>
       <c r="P1" s="1" t="s">
         <v>40</v>
       </c>
@@ -1003,10 +1003,10 @@
       <c r="B2" t="s">
         <v>117</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="3">
         <v>5</v>
       </c>
       <c r="G2" t="s">
@@ -1035,10 +1035,10 @@
       <c r="B3" t="s">
         <v>121</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="3">
         <v>3</v>
       </c>
       <c r="G3" t="s">
@@ -1070,10 +1070,10 @@
       <c r="C4" t="s">
         <v>116</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="4">
+      <c r="F4" s="3">
         <v>4</v>
       </c>
       <c r="G4" t="s">
@@ -1111,10 +1111,10 @@
       <c r="D5" t="s">
         <v>125</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="3">
         <v>0</v>
       </c>
       <c r="G5" t="s">
@@ -1158,10 +1158,10 @@
       <c r="C6" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="3">
         <v>1</v>
       </c>
       <c r="G6" t="s">
@@ -1202,10 +1202,10 @@
       <c r="D7" t="s">
         <v>115</v>
       </c>
-      <c r="E7" s="6" t="s">
+      <c r="E7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="3">
         <v>2</v>
       </c>
       <c r="G7" t="s">
@@ -1296,7 +1296,7 @@
   <dimension ref="A1:N49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1304,8 +1304,8 @@
     <col min="1" max="1" width="3.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="3.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="3.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="7.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.28515625" customWidth="1"/>
@@ -1318,58 +1318,58 @@
       <c r="A1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="5" t="s">
+      <c r="C1" s="17"/>
+      <c r="D1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="7"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="6"/>
       <c r="L1" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="2"/>
+      <c r="N1" s="17"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="3">
         <v>3</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F2" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="I2" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="L2" s="9" t="s">
         <v>94</v>
       </c>
     </row>
@@ -1377,28 +1377,28 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="3">
         <v>4</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="G3" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H3" s="12" t="s">
+      <c r="H3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="I3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L3" s="10" t="s">
+      <c r="L3" s="9" t="s">
         <v>95</v>
       </c>
     </row>
@@ -1406,34 +1406,34 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="9" t="s">
+      <c r="B4" s="8" t="s">
         <v>130</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="9" t="s">
         <v>50</v>
       </c>
       <c r="H4" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L4" s="10" t="s">
+      <c r="L4" s="9" t="s">
         <v>90</v>
       </c>
       <c r="M4" t="s">
@@ -1444,31 +1444,31 @@
       <c r="A5">
         <v>6</v>
       </c>
-      <c r="B5" s="9" t="s">
+      <c r="B5" s="8" t="s">
         <v>131</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="D5" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>1</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="G5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="12" t="s">
+      <c r="H5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="I5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L5" s="10" t="s">
+      <c r="L5" s="9" t="s">
         <v>91</v>
       </c>
     </row>
@@ -1476,13 +1476,13 @@
       <c r="A6">
         <v>7</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="D6" s="6" t="s">
+      <c r="B6" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="3">
         <v>6</v>
       </c>
       <c r="F6" t="s">
@@ -1491,10 +1491,10 @@
       <c r="G6" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="8" t="s">
+      <c r="H6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>92</v>
       </c>
       <c r="M6" t="s">
@@ -1508,13 +1508,13 @@
       <c r="A7">
         <v>8</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>109</v>
-      </c>
-      <c r="D7" s="6" t="s">
+      <c r="B7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>7</v>
       </c>
       <c r="F7" t="s">
@@ -1523,10 +1523,10 @@
       <c r="G7" t="s">
         <v>55</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="9" t="s">
         <v>93</v>
       </c>
       <c r="M7" t="s">
@@ -1540,28 +1540,28 @@
       <c r="A8">
         <v>9</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="D8" s="6" t="s">
+      <c r="D8" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E8" s="4">
+      <c r="E8" s="3">
         <v>5</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="G8" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="I8" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L8" s="10" t="s">
+      <c r="L8" s="9" t="s">
         <v>88</v>
       </c>
       <c r="M8" t="s">
@@ -1572,28 +1572,28 @@
       <c r="A9">
         <v>10</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="D9" s="6" t="s">
+      <c r="D9" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="3">
         <v>6</v>
       </c>
-      <c r="F9" s="10" t="s">
+      <c r="F9" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="12" t="s">
+      <c r="G9" s="11" t="s">
         <v>47</v>
       </c>
       <c r="H9" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="I9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L9" s="10" t="s">
+      <c r="L9" s="9" t="s">
         <v>96</v>
       </c>
       <c r="M9" t="s">
@@ -1604,25 +1604,25 @@
       <c r="A10">
         <v>11</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="D10" s="6" t="s">
+      <c r="D10" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="3">
         <v>7</v>
       </c>
-      <c r="F10" s="12" t="s">
+      <c r="F10" s="11" t="s">
         <v>47</v>
       </c>
       <c r="G10" t="s">
         <v>28</v>
       </c>
-      <c r="H10" s="8" t="s">
+      <c r="H10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L10" s="10" t="s">
+      <c r="L10" s="9" t="s">
         <v>89</v>
       </c>
       <c r="M10" t="s">
@@ -1636,25 +1636,25 @@
       <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="D11" s="6" t="s">
+      <c r="D11" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0</v>
       </c>
-      <c r="F11" s="10" t="s">
+      <c r="F11" s="9" t="s">
         <v>57</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="I11" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L11" s="10" t="s">
+      <c r="L11" s="9" t="s">
         <v>97</v>
       </c>
       <c r="M11" t="s">
@@ -1668,22 +1668,22 @@
       <c r="B12" t="s">
         <v>94</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>1</v>
       </c>
-      <c r="F12" s="10" t="s">
+      <c r="F12" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G12" s="12" t="s">
+      <c r="G12" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="H12" s="8" t="s">
+      <c r="H12" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="10" t="s">
+      <c r="L12" s="9" t="s">
         <v>101</v>
       </c>
       <c r="M12" t="s">
@@ -1697,25 +1697,25 @@
       <c r="B13" t="s">
         <v>107</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>2</v>
       </c>
-      <c r="F13" s="15" t="s">
+      <c r="F13" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G13" s="10" t="s">
+      <c r="G13" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="I13" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="10" t="s">
+      <c r="L13" s="9" t="s">
         <v>112</v>
       </c>
       <c r="M13" t="s">
@@ -1726,34 +1726,34 @@
       <c r="A14">
         <v>15</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="8" t="s">
         <v>112</v>
       </c>
-      <c r="C14" s="9" t="s">
+      <c r="C14" s="8" t="s">
         <v>118</v>
       </c>
-      <c r="D14" s="6" t="s">
+      <c r="D14" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="4">
+      <c r="E14" s="3">
         <v>3</v>
       </c>
-      <c r="F14" s="15" t="s">
+      <c r="F14" s="14" t="s">
         <v>62</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H14" s="10" t="s">
+      <c r="H14" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="I14" s="12" t="s">
+      <c r="I14" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="J14" s="8" t="s">
+      <c r="J14" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="10" t="s">
+      <c r="L14" s="9" t="s">
         <v>113</v>
       </c>
       <c r="M14" t="s">
@@ -1764,31 +1764,31 @@
       <c r="A15">
         <v>16</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="8" t="s">
         <v>113</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="8" t="s">
         <v>119</v>
       </c>
-      <c r="D15" s="6" t="s">
+      <c r="D15" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E15" s="4">
+      <c r="E15" s="3">
         <v>4</v>
       </c>
-      <c r="F15" s="15" t="s">
+      <c r="F15" s="14" t="s">
         <v>64</v>
       </c>
-      <c r="G15" s="11" t="s">
+      <c r="G15" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="I15" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L15" s="10" t="s">
+      <c r="L15" s="9" t="s">
         <v>114</v>
       </c>
       <c r="M15" t="s">
@@ -1799,31 +1799,31 @@
       <c r="A16">
         <v>17</v>
       </c>
-      <c r="B16" s="9" t="s">
+      <c r="B16" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="C16" s="9" t="s">
+      <c r="C16" s="8" t="s">
         <v>120</v>
       </c>
-      <c r="D16" s="6" t="s">
+      <c r="D16" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E16" s="4">
+      <c r="E16" s="3">
         <v>5</v>
       </c>
-      <c r="F16" s="12" t="s">
+      <c r="F16" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="H16" s="15" t="s">
+      <c r="H16" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="I16" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="10" t="s">
+      <c r="L16" s="9" t="s">
         <v>105</v>
       </c>
       <c r="M16" t="s">
@@ -1834,31 +1834,31 @@
       <c r="A17">
         <v>19</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="D17" s="6" t="s">
+      <c r="D17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E17" s="4">
+      <c r="E17" s="3">
         <v>2</v>
       </c>
-      <c r="F17" s="13" t="s">
+      <c r="F17" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="G17" s="12" t="s">
+      <c r="G17" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H17" s="10" t="s">
+      <c r="H17" s="9" t="s">
         <v>71</v>
       </c>
-      <c r="I17" s="15" t="s">
+      <c r="I17" s="14" t="s">
         <v>72</v>
       </c>
-      <c r="J17" s="8" t="s">
+      <c r="J17" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L17" s="10" t="s">
+      <c r="L17" s="9" t="s">
         <v>107</v>
       </c>
     </row>
@@ -1866,31 +1866,31 @@
       <c r="A18">
         <v>22</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="D18" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="3">
         <v>3</v>
       </c>
-      <c r="F18" s="13" t="s">
+      <c r="F18" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="G18" s="12" t="s">
+      <c r="G18" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H18" s="10" t="s">
+      <c r="H18" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="I18" s="15" t="s">
+      <c r="I18" s="14" t="s">
         <v>75</v>
       </c>
-      <c r="J18" s="8" t="s">
+      <c r="J18" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="L18" s="17" t="s">
+      <c r="L18" s="16" t="s">
         <v>108</v>
       </c>
       <c r="M18" t="s">
@@ -1901,28 +1901,28 @@
       <c r="A19">
         <v>23</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="D19" s="6" t="s">
+      <c r="D19" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E19" s="4">
+      <c r="E19" s="3">
         <v>0</v>
       </c>
-      <c r="F19" s="13" t="s">
+      <c r="F19" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G19" s="12" t="s">
+      <c r="G19" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H19" s="15" t="s">
+      <c r="H19" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L19" s="17" t="s">
+      <c r="L19" s="16" t="s">
         <v>109</v>
       </c>
       <c r="M19" t="s">
@@ -1933,28 +1933,28 @@
       <c r="A20">
         <v>24</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="D20" s="6" t="s">
+      <c r="D20" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E20" s="4">
+      <c r="E20" s="3">
         <v>1</v>
       </c>
-      <c r="F20" s="13" t="s">
+      <c r="F20" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="12" t="s">
+      <c r="G20" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="I20" s="8" t="s">
+      <c r="I20" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L20" s="17" t="s">
+      <c r="L20" s="16" t="s">
         <v>110</v>
       </c>
       <c r="M20" t="s">
@@ -1965,25 +1965,25 @@
       <c r="A21">
         <v>25</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="D21" s="6" t="s">
+      <c r="D21" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="4">
+      <c r="E21" s="3">
         <v>2</v>
       </c>
-      <c r="F21" s="13" t="s">
+      <c r="F21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G21" s="12" t="s">
+      <c r="G21" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H21" s="8" t="s">
+      <c r="H21" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L21" s="17" t="s">
+      <c r="L21" s="16" t="s">
         <v>111</v>
       </c>
       <c r="M21" t="s">
@@ -1994,25 +1994,25 @@
       <c r="A22">
         <v>26</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="D22" s="6" t="s">
+      <c r="D22" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E22" s="4">
+      <c r="E22" s="3">
         <v>3</v>
       </c>
-      <c r="F22" s="13" t="s">
+      <c r="F22" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="G22" s="12" t="s">
+      <c r="G22" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H22" s="8" t="s">
+      <c r="H22" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L22" s="10" t="s">
+      <c r="L22" s="9" t="s">
         <v>126</v>
       </c>
       <c r="M22" t="s">
@@ -2023,28 +2023,28 @@
       <c r="A23">
         <v>27</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="D23" s="6" t="s">
+      <c r="D23" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E23" s="4">
+      <c r="E23" s="3">
         <v>4</v>
       </c>
-      <c r="F23" s="13" t="s">
+      <c r="F23" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="G23" s="12" t="s">
+      <c r="G23" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="14" t="s">
+      <c r="H23" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="I23" s="8" t="s">
+      <c r="I23" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L23" s="10" t="s">
+      <c r="L23" s="9" t="s">
         <v>127</v>
       </c>
       <c r="M23" t="s">
@@ -2055,28 +2055,28 @@
       <c r="A24">
         <v>28</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="8" t="s">
         <v>93</v>
       </c>
-      <c r="D24" s="6" t="s">
+      <c r="D24" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E24" s="4">
+      <c r="E24" s="3">
         <v>5</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="G24" s="12" t="s">
+      <c r="G24" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H24" s="14" t="s">
+      <c r="H24" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I24" s="8" t="s">
+      <c r="I24" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L24" s="10" t="s">
+      <c r="L24" s="9" t="s">
         <v>128</v>
       </c>
       <c r="M24" t="s">
@@ -2087,22 +2087,22 @@
       <c r="A25">
         <v>29</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="8" t="s">
         <v>117</v>
       </c>
-      <c r="D25" s="6" t="s">
+      <c r="D25" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="4">
+      <c r="E25" s="3">
         <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>5</v>
       </c>
-      <c r="G25" s="8" t="s">
+      <c r="G25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="L25" s="10" t="s">
+      <c r="L25" s="9" t="s">
         <v>133</v>
       </c>
       <c r="M25" t="s">
@@ -2113,31 +2113,31 @@
       <c r="A26">
         <v>30</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="D26" s="6" t="s">
+      <c r="D26" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E26" s="4">
+      <c r="E26" s="3">
         <v>0</v>
       </c>
-      <c r="F26" s="12" t="s">
+      <c r="F26" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G26" s="10" t="s">
+      <c r="G26" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="H26" s="11" t="s">
+      <c r="H26" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="I26" s="8" t="s">
+      <c r="I26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="10" t="s">
+      <c r="L26" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="M26" s="16" t="s">
+      <c r="M26" s="15" t="s">
         <v>136</v>
       </c>
     </row>
@@ -2145,28 +2145,28 @@
       <c r="A27">
         <v>31</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="D27" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E27" s="3">
         <v>1</v>
       </c>
-      <c r="F27" s="12" t="s">
+      <c r="F27" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G27" s="10" t="s">
+      <c r="G27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="H27" s="11" t="s">
+      <c r="H27" s="10" t="s">
         <v>83</v>
       </c>
-      <c r="I27" s="8" t="s">
+      <c r="I27" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="10" t="s">
+      <c r="L27" s="9" t="s">
         <v>130</v>
       </c>
       <c r="M27" t="s">
@@ -2177,31 +2177,31 @@
       <c r="A28">
         <v>32</v>
       </c>
-      <c r="B28" s="8" t="s">
+      <c r="B28" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="D28" s="6" t="s">
+      <c r="D28" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="E28" s="4">
+      <c r="E28" s="3">
         <v>2</v>
       </c>
-      <c r="F28" s="12" t="s">
+      <c r="F28" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="G28" s="8" t="s">
+      <c r="G28" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="H28" s="10" t="s">
+      <c r="H28" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="I28" s="10" t="s">
+      <c r="I28" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="J28" s="8" t="s">
+      <c r="J28" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="L28" s="10" t="s">
+      <c r="L28" s="9" t="s">
         <v>131</v>
       </c>
       <c r="M28" t="s">
@@ -2212,22 +2212,22 @@
       <c r="A29">
         <v>1</v>
       </c>
-      <c r="B29" s="16" t="s">
+      <c r="B29" s="15" t="s">
         <v>137</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <v>0</v>
       </c>
-      <c r="E29" s="4">
+      <c r="E29" s="3">
         <v>0</v>
       </c>
-      <c r="F29" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="9" t="s">
+      <c r="F29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G29" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L29" s="10" t="s">
+      <c r="L29" s="9" t="s">
         <v>132</v>
       </c>
       <c r="M29" t="s">
@@ -2238,22 +2238,22 @@
       <c r="A30">
         <v>2</v>
       </c>
-      <c r="B30" s="16" t="s">
+      <c r="B30" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <v>0</v>
       </c>
-      <c r="E30" s="4">
+      <c r="E30" s="3">
         <v>1</v>
       </c>
-      <c r="F30" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G30" s="9" t="s">
+      <c r="F30" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G30" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L30" s="10" t="s">
+      <c r="L30" s="9" t="s">
         <v>117</v>
       </c>
       <c r="M30" t="s">
@@ -2264,22 +2264,22 @@
       <c r="A31">
         <v>3</v>
       </c>
-      <c r="B31" s="16" t="s">
+      <c r="B31" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="D31" s="6">
+      <c r="D31" s="5">
         <v>0</v>
       </c>
-      <c r="E31" s="4">
+      <c r="E31" s="3">
         <v>2</v>
       </c>
-      <c r="F31" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G31" s="9" t="s">
+      <c r="F31" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L31" s="10" t="s">
+      <c r="L31" s="9" t="s">
         <v>118</v>
       </c>
       <c r="M31" t="s">
@@ -2290,22 +2290,22 @@
       <c r="A32">
         <v>4</v>
       </c>
-      <c r="B32" s="16" t="s">
+      <c r="B32" s="15" t="s">
         <v>140</v>
       </c>
-      <c r="D32" s="6">
+      <c r="D32" s="5">
         <v>0</v>
       </c>
-      <c r="E32" s="4">
+      <c r="E32" s="3">
         <v>3</v>
       </c>
-      <c r="F32" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G32" s="9" t="s">
+      <c r="F32" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G32" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L32" s="10" t="s">
+      <c r="L32" s="9" t="s">
         <v>119</v>
       </c>
       <c r="M32" t="s">
@@ -2316,22 +2316,22 @@
       <c r="A33">
         <v>5</v>
       </c>
-      <c r="B33" s="16" t="s">
+      <c r="B33" s="15" t="s">
         <v>141</v>
       </c>
-      <c r="D33" s="6">
+      <c r="D33" s="5">
         <v>0</v>
       </c>
-      <c r="E33" s="4">
+      <c r="E33" s="3">
         <v>4</v>
       </c>
-      <c r="F33" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G33" s="9" t="s">
+      <c r="F33" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G33" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L33" s="10" t="s">
+      <c r="L33" s="9" t="s">
         <v>120</v>
       </c>
       <c r="M33" t="s">
@@ -2342,22 +2342,22 @@
       <c r="A34">
         <v>6</v>
       </c>
-      <c r="B34" s="16" t="s">
+      <c r="B34" s="15" t="s">
         <v>142</v>
       </c>
-      <c r="D34" s="6">
+      <c r="D34" s="5">
         <v>0</v>
       </c>
-      <c r="E34" s="4">
+      <c r="E34" s="3">
         <v>5</v>
       </c>
-      <c r="F34" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="9" t="s">
+      <c r="F34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G34" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L34" s="10" t="s">
+      <c r="L34" s="9" t="s">
         <v>137</v>
       </c>
       <c r="M34" t="s">
@@ -2368,22 +2368,22 @@
       <c r="A35">
         <v>7</v>
       </c>
-      <c r="B35" s="16" t="s">
+      <c r="B35" s="15" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="6">
+      <c r="D35" s="5">
         <v>0</v>
       </c>
-      <c r="E35" s="4">
+      <c r="E35" s="3">
         <v>6</v>
       </c>
-      <c r="F35" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G35" s="9" t="s">
+      <c r="F35" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G35" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L35" s="10" t="s">
+      <c r="L35" s="9" t="s">
         <v>138</v>
       </c>
       <c r="M35" t="s">
@@ -2394,22 +2394,22 @@
       <c r="A36">
         <v>8</v>
       </c>
-      <c r="B36" s="16" t="s">
+      <c r="B36" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="D36" s="6">
+      <c r="D36" s="5">
         <v>0</v>
       </c>
-      <c r="E36" s="4">
+      <c r="E36" s="3">
         <v>7</v>
       </c>
-      <c r="F36" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G36" s="9" t="s">
+      <c r="F36" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G36" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L36" s="10" t="s">
+      <c r="L36" s="9" t="s">
         <v>139</v>
       </c>
       <c r="M36" t="s">
@@ -2420,22 +2420,22 @@
       <c r="A37">
         <v>10</v>
       </c>
-      <c r="B37" s="16" t="s">
+      <c r="B37" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="D37" s="6">
+      <c r="D37" s="5">
         <v>1</v>
       </c>
-      <c r="E37" s="4">
+      <c r="E37" s="3">
         <v>0</v>
       </c>
-      <c r="F37" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G37" s="9" t="s">
+      <c r="F37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G37" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L37" s="10" t="s">
+      <c r="L37" s="9" t="s">
         <v>140</v>
       </c>
       <c r="M37" t="s">
@@ -2446,22 +2446,22 @@
       <c r="A38">
         <v>11</v>
       </c>
-      <c r="B38" s="16" t="s">
+      <c r="B38" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="D38" s="6">
+      <c r="D38" s="5">
         <v>1</v>
       </c>
-      <c r="E38" s="4">
+      <c r="E38" s="3">
         <v>1</v>
       </c>
-      <c r="F38" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G38" s="9" t="s">
+      <c r="F38" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G38" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L38" s="10" t="s">
+      <c r="L38" s="9" t="s">
         <v>141</v>
       </c>
       <c r="M38" t="s">
@@ -2472,22 +2472,22 @@
       <c r="A39">
         <v>12</v>
       </c>
-      <c r="B39" s="16" t="s">
+      <c r="B39" s="15" t="s">
         <v>147</v>
       </c>
-      <c r="D39" s="6">
+      <c r="D39" s="5">
         <v>1</v>
       </c>
-      <c r="E39" s="4">
+      <c r="E39" s="3">
         <v>2</v>
       </c>
-      <c r="F39" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G39" s="9" t="s">
+      <c r="F39" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L39" s="10" t="s">
+      <c r="L39" s="9" t="s">
         <v>142</v>
       </c>
       <c r="M39" t="s">
@@ -2498,22 +2498,22 @@
       <c r="A40">
         <v>13</v>
       </c>
-      <c r="B40" s="16" t="s">
+      <c r="B40" s="15" t="s">
         <v>148</v>
       </c>
-      <c r="D40" s="6">
+      <c r="D40" s="5">
         <v>1</v>
       </c>
-      <c r="E40" s="4">
+      <c r="E40" s="3">
         <v>3</v>
       </c>
-      <c r="F40" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G40" s="9" t="s">
+      <c r="F40" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G40" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L40" s="10" t="s">
+      <c r="L40" s="9" t="s">
         <v>143</v>
       </c>
       <c r="M40" t="s">
@@ -2524,22 +2524,22 @@
       <c r="A41">
         <v>14</v>
       </c>
-      <c r="B41" s="16" t="s">
+      <c r="B41" s="15" t="s">
         <v>149</v>
       </c>
-      <c r="D41" s="6">
+      <c r="D41" s="5">
         <v>1</v>
       </c>
-      <c r="E41" s="4">
+      <c r="E41" s="3">
         <v>4</v>
       </c>
-      <c r="F41" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="F41" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G41" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L41" s="10" t="s">
+      <c r="L41" s="9" t="s">
         <v>144</v>
       </c>
       <c r="M41" t="s">
@@ -2550,22 +2550,22 @@
       <c r="A42">
         <v>15</v>
       </c>
-      <c r="B42" s="16" t="s">
+      <c r="B42" s="15" t="s">
         <v>150</v>
       </c>
-      <c r="D42" s="6">
+      <c r="D42" s="5">
         <v>1</v>
       </c>
-      <c r="E42" s="4">
+      <c r="E42" s="3">
         <v>5</v>
       </c>
-      <c r="F42" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G42" s="9" t="s">
+      <c r="F42" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G42" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L42" s="10" t="s">
+      <c r="L42" s="9" t="s">
         <v>145</v>
       </c>
       <c r="M42" t="s">
@@ -2576,22 +2576,22 @@
       <c r="A43">
         <v>16</v>
       </c>
-      <c r="B43" s="16" t="s">
+      <c r="B43" s="15" t="s">
         <v>151</v>
       </c>
-      <c r="D43" s="6">
+      <c r="D43" s="5">
         <v>1</v>
       </c>
-      <c r="E43" s="4">
+      <c r="E43" s="3">
         <v>6</v>
       </c>
-      <c r="F43" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G43" s="9" t="s">
+      <c r="F43" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G43" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L43" s="10" t="s">
+      <c r="L43" s="9" t="s">
         <v>146</v>
       </c>
       <c r="M43" t="s">
@@ -2602,22 +2602,22 @@
       <c r="A44">
         <v>17</v>
       </c>
-      <c r="B44" s="16" t="s">
+      <c r="B44" s="15" t="s">
         <v>153</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D44" s="5">
         <v>1</v>
       </c>
-      <c r="E44" s="4">
+      <c r="E44" s="3">
         <v>7</v>
       </c>
-      <c r="F44" s="8" t="s">
-        <v>86</v>
-      </c>
-      <c r="G44" s="9" t="s">
+      <c r="F44" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G44" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="L44" s="10" t="s">
+      <c r="L44" s="9" t="s">
         <v>147</v>
       </c>
       <c r="M44" t="s">
@@ -2625,7 +2625,7 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L45" s="10" t="s">
+      <c r="L45" s="9" t="s">
         <v>148</v>
       </c>
       <c r="M45" t="s">
@@ -2633,7 +2633,7 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L46" s="10" t="s">
+      <c r="L46" s="9" t="s">
         <v>149</v>
       </c>
       <c r="M46" t="s">
@@ -2641,7 +2641,7 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L47" s="10" t="s">
+      <c r="L47" s="9" t="s">
         <v>150</v>
       </c>
       <c r="M47" t="s">
@@ -2649,7 +2649,7 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L48" s="10" t="s">
+      <c r="L48" s="9" t="s">
         <v>151</v>
       </c>
       <c r="M48" t="s">
@@ -2657,7 +2657,7 @@
       </c>
     </row>
     <row r="49" spans="12:13" x14ac:dyDescent="0.25">
-      <c r="L49" s="10" t="s">
+      <c r="L49" s="9" t="s">
         <v>153</v>
       </c>
       <c r="M49" t="s">
